--- a/PLScombined/PLScombined_predicted_factors_matrix_7.xlsx
+++ b/PLScombined/PLScombined_predicted_factors_matrix_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:AU8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,132 @@
       <c r="E1" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -466,6 +592,132 @@
       <c r="E2" t="n">
         <v>-1.046879176025444</v>
       </c>
+      <c r="F2" t="n">
+        <v>-1.05994851451378</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-1.078319283309571</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-1.101099967277011</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-1.126689688000917</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1.155144381555004</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-1.185712958262933</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-1.217751069959144</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-1.250717629018245</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-1.284166642804036</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-1.317736427956662</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-1.351138091952057</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>-1.384144393280398</v>
+      </c>
+      <c r="R2" t="n">
+        <v>-1.417748438305959</v>
+      </c>
+      <c r="S2" t="n">
+        <v>-1.450653820454924</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-1.482755895285043</v>
+      </c>
+      <c r="U2" t="n">
+        <v>-1.513980027667495</v>
+      </c>
+      <c r="V2" t="n">
+        <v>-1.544275041645399</v>
+      </c>
+      <c r="W2" t="n">
+        <v>-1.573608266961118</v>
+      </c>
+      <c r="X2" t="n">
+        <v>-1.601961641834513</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>-1.630579979970758</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>-1.658208810573375</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>-1.684851400032593</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>-1.710518216230824</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>-1.735224958275179</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>-1.758991139286794</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>-1.78183901099435</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>-1.803792734169232</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>-1.824877733730911</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>-1.845120195827106</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>-1.865867640703924</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>-1.885801489440441</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>-1.904946344081418</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>-1.923327041572571</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>-1.940968426189856</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>-1.957895135183952</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>-1.974131432667168</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>-1.989701087241661</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>-2.005945632865601</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>-2.021538133827288</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>-2.036500584600254</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>-2.050854282349926</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>-2.064619937447806</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -483,6 +735,132 @@
       <c r="E3" t="n">
         <v>-0.438448296639648</v>
       </c>
+      <c r="F3" t="n">
+        <v>-0.4698781836676517</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-0.4803779598954245</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-0.4760018545969782</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-0.4584880931486938</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-0.434324019615328</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-0.4062948080012883</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-0.3764375040609151</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-0.3462176287967306</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-0.3166642355217199</v>
+      </c>
+      <c r="O3" t="n">
+        <v>-0.2884747088602769</v>
+      </c>
+      <c r="P3" t="n">
+        <v>-0.2620963003106697</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>-0.2377895378891381</v>
+      </c>
+      <c r="R3" t="n">
+        <v>-0.2168199010866133</v>
+      </c>
+      <c r="S3" t="n">
+        <v>-0.1978061762735741</v>
+      </c>
+      <c r="T3" t="n">
+        <v>-0.1807474113948138</v>
+      </c>
+      <c r="U3" t="n">
+        <v>-0.1655891471231125</v>
+      </c>
+      <c r="V3" t="n">
+        <v>-0.1522413867535315</v>
+      </c>
+      <c r="W3" t="n">
+        <v>-0.1405915228286648</v>
+      </c>
+      <c r="X3" t="n">
+        <v>-0.1305138401051329</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>-0.1224576737181923</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>-0.1155959543492145</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>-0.1098238796820261</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>-0.1050368757040449</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>-0.101133412963749</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>-0.09801673987148324</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>-0.0955959526363518</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>-0.09378660604149777</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>-0.09251099542279026</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>-0.09169820094701005</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>-0.09169516927433666</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>-0.09200214290532291</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>-0.09257129804007305</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>-0.09336038963049623</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>-0.09433200787532862</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>-0.09545307581315084</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>-0.09669444242588643</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>-0.09803052415982066</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>-0.09986183640701003</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>-0.1017304586948269</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>-0.1036173941802613</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>-0.1055076768389938</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>-0.1073892369765043</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -500,6 +878,132 @@
       <c r="E4" t="n">
         <v>0.4814532944601009</v>
       </c>
+      <c r="F4" t="n">
+        <v>0.351508579339113</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.2494216440237455</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.1698013030647227</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.1063282492244427</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.05859448951041786</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.02329639194497593</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-0.00229573163163444</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-0.02037760574411817</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0.03270209092621013</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-0.04066032627081939</v>
+      </c>
+      <c r="P4" t="n">
+        <v>-0.0453498759704895</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>-0.04763127968608077</v>
+      </c>
+      <c r="R4" t="n">
+        <v>-0.04868428510468284</v>
+      </c>
+      <c r="S4" t="n">
+        <v>-0.04845360393190896</v>
+      </c>
+      <c r="T4" t="n">
+        <v>-0.0473270715592879</v>
+      </c>
+      <c r="U4" t="n">
+        <v>-0.0456052017738425</v>
+      </c>
+      <c r="V4" t="n">
+        <v>-0.04351620963155554</v>
+      </c>
+      <c r="W4" t="n">
+        <v>-0.04123155020572376</v>
+      </c>
+      <c r="X4" t="n">
+        <v>-0.03887820853809781</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>-0.03691120710568496</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>-0.03495373633904519</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>-0.03306139948843424</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>-0.03127483645123079</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>-0.02962046641096049</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>-0.02811380428770045</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>-0.0267621963473786</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>-0.0255669418077549</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>-0.02452494120785938</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>-0.02362998064490181</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>-0.02303415213273425</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>-0.02254212059349351</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>-0.02214992623833832</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>-0.02185063935026677</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>-0.02163672264457097</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>-0.02150040069549604</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>-0.02143386944007393</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>-0.021429467774105</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>-0.02159223486702053</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>-0.0217971476365081</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>-0.02204104959687237</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>-0.02231744575371014</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>-0.02262051263458112</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -517,6 +1021,132 @@
       <c r="E5" t="n">
         <v>0.2834155052240489</v>
       </c>
+      <c r="F5" t="n">
+        <v>0.2164681840687356</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.1597397141111049</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.113010013129804</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.07417147796320102</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.04406478809633344</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.02117006150305171</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.004154927285142826</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-0.00814162001522642</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.01670691011493632</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-0.02236423975486517</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-0.02578952143692886</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>-0.0275304703626597</v>
+      </c>
+      <c r="R5" t="n">
+        <v>-0.02843274919121573</v>
+      </c>
+      <c r="S5" t="n">
+        <v>-0.02838140091996192</v>
+      </c>
+      <c r="T5" t="n">
+        <v>-0.02764138281158909</v>
+      </c>
+      <c r="U5" t="n">
+        <v>-0.02642242266300868</v>
+      </c>
+      <c r="V5" t="n">
+        <v>-0.02488958745034549</v>
+      </c>
+      <c r="W5" t="n">
+        <v>-0.02317061072444728</v>
+      </c>
+      <c r="X5" t="n">
+        <v>-0.02136259514023855</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>-0.0198235808569542</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>-0.01824887558497908</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>-0.01668996311830215</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>-0.01518248943023665</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>-0.01375131204855719</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>-0.01241279645861861</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>-0.01117666511428683</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>-0.01004754277746021</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>-0.009026221507382604</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>-0.008110678473622448</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>-0.007419812720537111</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>-0.006794325443054529</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>-0.006236517974518962</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>-0.005746384649253647</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>-0.00532165688619639</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>-0.004958673288860897</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>-0.004652997703103921</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>-0.004399822420561797</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>-0.00427820935853761</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>-0.004183155364278254</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>-0.004115106878673357</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>-0.004074339792838977</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>-0.004059490401950758</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -534,6 +1164,132 @@
       <c r="E6" t="n">
         <v>-0.07292927356687462</v>
       </c>
+      <c r="F6" t="n">
+        <v>-0.06065948925239571</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-0.04804922683470977</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-0.03637363392751324</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-0.02588503560661943</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-0.01711520951612197</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-0.009984999960790469</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-0.004321214933157571</v>
+      </c>
+      <c r="M6" t="n">
+        <v>9.052021220502977e-05</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.003466943095498086</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.006007201506659195</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.007884507693096973</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.009244244991487014</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.01026219674064192</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.01096187230612432</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.011426094930849</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.01171724110548135</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.01188276329876605</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.01195849610006798</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.01197128543697699</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.0120356166257793</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.01204433987051228</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.01201779163891737</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.01196939177639489</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.01190840614381785</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.01184117425916247</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.01177195042533147</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.0117035121943841</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.0116375997208068</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.01157523130717381</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.01162410790739683</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0.0116499928172481</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.01166038466234694</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.01166072423148809</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.0116546644503968</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.01164463289364746</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.01163223320497118</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.0116185143815275</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0.01171381923189043</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0.01178336083372792</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0.01183350467876417</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0.01186955827689371</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0.01189527212251438</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -551,6 +1307,132 @@
       <c r="E7" t="n">
         <v>-0.3340636358460216</v>
       </c>
+      <c r="F7" t="n">
+        <v>-0.2501266755191213</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-0.1872245747153567</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-0.1397947198937108</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-0.1020227548055997</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-0.07392278597423775</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-0.05302125235668878</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-0.03751056157179985</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-0.0260529167297318</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.01764971048587364</v>
+      </c>
+      <c r="O7" t="n">
+        <v>-0.01155035272596851</v>
+      </c>
+      <c r="P7" t="n">
+        <v>-0.007187509877897042</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>-0.004130507274147495</v>
+      </c>
+      <c r="R7" t="n">
+        <v>-0.002099618299232843</v>
+      </c>
+      <c r="S7" t="n">
+        <v>-0.0007369860541915248</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.0001220738669984759</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.0006043394615138143</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.0008083927890262704</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.0008109664044788881</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.0006716006320264701</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.0004569834587586543</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.0001876531771932635</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>-0.0001145385485054008</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>-0.0004331141914467569</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>-0.0007554682807418306</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>-0.00107209309004445</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>-0.001376005469335747</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>-0.001662277681420198</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>-0.001927641058502498</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>-0.002170148867256059</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>-0.002395913073326928</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>-0.002586861118855802</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>-0.002748872561869709</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>-0.002885779002390937</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>-0.003000399732463921</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>-0.003094996490548952</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>-0.003171509422091715</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>-0.003231681038775836</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>-0.0032904103062123</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>-0.003320883889580865</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>-0.003331333993222024</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>-0.003326707808445651</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>-0.003310307319481366</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -567,6 +1449,132 @@
       </c>
       <c r="E8" t="n">
         <v>-0.007461379498438331</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.003313968520488252</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.008397645927979107</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.01062976310094828</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.01098423725501294</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.0107436841915092</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.01017777718379749</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.009434895391748827</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.008604123220595172</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.007741235951670151</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.006881737566714414</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.006048080721778877</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.005253999769206888</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.004672165669486114</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.004024412305215658</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.003377880362628199</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.002761046122386335</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.002184976975236575</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.001652749823486584</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.001163772916923708</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.0007463480078415911</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.0003348801854503565</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>-5.574155324305444e-05</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>-0.0004202728524362502</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>-0.0007577719127208659</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>-0.00106921884948605</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>-0.001356389827011355</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>-0.001621322096620751</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>-0.001866063292467611</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>-0.002092558136514044</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>-0.002362267492547758</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>-0.002594696825469545</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>-0.002802276063764592</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>-0.002991779607586505</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>-0.00316714815965279</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>-0.00333083245804961</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>-0.003484475427237126</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>-0.003629264316733385</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>-0.003861350835393145</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>-0.004045325536168369</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>-0.004201258532009001</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>-0.0043398303455742</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>-0.004466890081970265</v>
       </c>
     </row>
   </sheetData>
